--- a/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9616011-A766-4B76-85EA-AD327B391D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F0A90-67B0-4EF7-A340-2489BD7C324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>string</t>
   </si>
@@ -88,6 +88,28 @@
   <si>
     <t>Assets/AddressableAssets/BGM/系统背景音乐/岩崎太整 - Suspicion.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第零章背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/第零章背景音乐.MP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/第一章背景音乐.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHITE BEYOND (白い闇の隣)</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/WHITE BEYOND (白い闇の隣).mp3</t>
   </si>
 </sst>
 </file>
@@ -422,9 +444,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -438,22 +460,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="81.25" customWidth="1"/>
-    <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="81.21875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -464,7 +486,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,7 +497,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -486,7 +508,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -496,7 +518,7 @@
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -504,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -512,7 +534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -520,12 +542,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04F0A90-67B0-4EF7-A340-2489BD7C324E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB7479-C2EC-4F57-9973-A3207642933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>string</t>
   </si>
@@ -110,6 +110,44 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/BGM/系统背景音乐/WHITE BEYOND (白い闇の隣).mp3</t>
+  </si>
+  <si>
+    <t>Franz Liszt - 爱之梦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/Franz Liszt - 爱之梦.mp3</t>
+  </si>
+  <si>
+    <t>Keep On The Sunny Side</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/Keep On The Sunny Side.mp3</t>
+  </si>
+  <si>
+    <t>Toy Blues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/Toy Blues.mp3</t>
+  </si>
+  <si>
+    <t>A SPROUT</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/A SPROUT.mp3</t>
+  </si>
+  <si>
+    <t>Epigraph</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/Epigraph.mp3</t>
+  </si>
+  <si>
+    <t>EVER SO TENDERLY</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/EVER SO TENDERLY.mp3</t>
   </si>
 </sst>
 </file>
@@ -444,9 +482,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -460,22 +498,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="81.21875" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="81.25" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +524,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,7 +535,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -508,7 +546,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -518,7 +556,7 @@
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -534,7 +572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -542,7 +580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -550,7 +588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -558,7 +596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -566,12 +604,60 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EB7479-C2EC-4F57-9973-A3207642933E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA8E51-281E-406F-8FB4-58FAB1077693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>string</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/BGM/系统背景音乐/EVER SO TENDERLY.mp3</t>
+  </si>
+  <si>
+    <t>There Will Be A Day</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/There Will Be A Day.mp3</t>
+  </si>
+  <si>
+    <t>Calm Days</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/Calm Days.mp3</t>
+  </si>
+  <si>
+    <t>岩崎太整 - Algesia</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/岩崎太整 - Algesia.mp3</t>
+  </si>
+  <si>
+    <t>MEANWHILE</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/MEANWHILE.mp3</t>
+  </si>
+  <si>
+    <t>1_It means_(Instrumental)</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/1_It means_(Instrumental).wav</t>
   </si>
 </sst>
 </file>
@@ -498,10 +528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -660,6 +690,46 @@
         <v>34</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA8E51-281E-406F-8FB4-58FAB1077693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545C665-BC9C-4FE2-B77B-F2DF7EC23059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>string</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/BGM/系统背景音乐/1_It means_(Instrumental).wav</t>
+  </si>
+  <si>
+    <t>岩崎太整 - If You Take Anything</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/BGM/系统背景音乐/岩崎太整 - If You Take Anything.mp3</t>
   </si>
 </sst>
 </file>
@@ -528,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,6 +736,14 @@
         <v>44</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
+++ b/XuMiuDuTing/RabiConfig/xlsx/BGM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\XuMiuDuTing\XuMiuDuTing\RabiConfig\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545C665-BC9C-4FE2-B77B-F2DF7EC23059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E2451-6328-4F48-95C5-DDD96613E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
